--- a/pred_ohlcv/54_21/2020-01-13 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 ETC ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>2254.65191854789</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2406.65191854789</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2432.29101854789</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2228.00731854789</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2253.00731854789</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2015.40731854789</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1302.22571854789</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1362.396764049367</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1362.396764049367</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1362.396764049367</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1412.841364049367</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1551.471364049367</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1551.471364049367</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>2398.765485790264</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2398.765485790264</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2398.765485790264</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>3090.215685790264</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>4138.976585790264</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>3592.830185790264</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>3592.830185790264</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>3712.379685790264</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3712.379685790264</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>3712.379685790264</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>3712.379685790264</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>3604.079685790264</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>3544.069985790264</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>3631.790385790264</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>3551.778585790264</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>3551.778585790264</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>3535.559785790264</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>3592.074885790264</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>3585.574885790264</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>3537.903485790263</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>3437.903485790263</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>3302.703485790264</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>3407.603485790264</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2958.403585790264</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>3476.744285790263</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>3279.344285790263</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>3272.577085790263</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>4231.939485790263</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>4166.907785790263</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>4166.907785790263</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>4303.682885790263</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>4302.682885790263</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1966.894664779204</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1820.740464779204</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>2239.153664779204</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>2176.105664779204</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>2049.862264779204</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2053.959464779204</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2053.959464779204</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>2053.959464779204</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>2094.543464779204</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>2094.543464779204</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>2089.034064779204</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>2089.434064779204</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>2033.795264779204</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>2102.671964779204</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1997.471964779204</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>2075.474664779204</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>2070.474664779204</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1937.337264779204</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1861.271764779204</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1745.690764779205</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1718.973964779205</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1723.973964779205</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1621.263964779205</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1294.985664779205</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1292.985664779205</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1298.552864779205</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1278.260864779205</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1240.985164779205</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1083.556864779205</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1741.177164779205</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1570.124964779205</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1570.124964779205</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1423.382964779205</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1574.382964779205</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1883.287364779205</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1883.287364779205</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>2283.287364779205</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1330.642935220796</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>4805.483731317091</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>4805.483731317091</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>5430.483731317091</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>5383.208531317091</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>6018.157431317091</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>5931.540531317091</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>5956.754031317091</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>5951.754031317091</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>5776.893931317091</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>5776.893931317091</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>5776.893931317091</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>5594.313831317091</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>5575.64713131709</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>5575.64713131709</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>5575.64713131709</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>5600.64713131709</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>5604.368831317091</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>5604.368831317091</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>5604.368831317091</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>5604.368831317091</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>5570.52613131709</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>5570.52613131709</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>5459.89423131709</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>4515.89423131709</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>4565.89423131709</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>4517.31513131709</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>3955.39293131709</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>3955.39293131709</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>1792.046831317091</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>1617.976231317091</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>1617.976231317091</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>1667.976231317091</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>1672.976231317091</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>1672.976231317091</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>2674.725631317091</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>2498.343031317091</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>2018.791531317091</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>1875.030531317091</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>1893.855031317091</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>2428.95453131709</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>2428.95453131709</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>2074.99633131709</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>2102.09143131709</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>1819.22133131709</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>1349.86633131709</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>2311.68743131709</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>2311.68743131709</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>2329.91143131709</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>2329.91143131709</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>2332.56443131709</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-13 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 ETC ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>2254.65191854789</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2406.65191854789</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2432.29101854789</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2228.00731854789</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2253.00731854789</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2015.40731854789</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1302.22571854789</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1362.396764049367</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1362.396764049367</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1362.396764049367</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1412.841364049367</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1551.471364049367</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1551.471364049367</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>4138.976585790264</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>3592.830185790264</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>3592.830185790264</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>3712.379685790264</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3712.379685790264</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>3712.379685790264</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>3712.379685790264</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>3604.079685790264</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>3544.069985790264</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>3631.790385790264</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>3551.778585790264</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>3551.778585790264</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>3535.559785790264</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>3592.074885790264</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>3585.574885790264</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>3537.903485790263</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>3437.903485790263</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1966.894664779204</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1820.740464779204</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>2239.153664779204</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>2176.105664779204</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>2049.862264779204</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2053.959464779204</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2053.959464779204</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>2053.959464779204</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>2094.543464779204</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>2094.543464779204</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>2089.034064779204</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>2089.434064779204</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>2033.795264779204</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>2102.671964779204</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1997.471964779204</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>2075.474664779204</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>2070.474664779204</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1937.337264779204</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1861.271764779204</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1745.690764779205</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1718.973964779205</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1723.973964779205</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1621.263964779205</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>1500.897964779205</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>1401.911964779204</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>1401.911964779204</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>1438.212464779205</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>1330.196664779205</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>1330.196664779205</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1294.985664779205</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1292.985664779205</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1298.552864779205</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1278.260864779205</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1240.985164779205</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1330.642935220796</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>230.0181647792041</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>381.0181647792041</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>4805.483731317091</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>4805.483731317091</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>5430.483731317091</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>5383.208531317091</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>6018.157431317091</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>5931.540531317091</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>5956.754031317091</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>5951.754031317091</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>5776.893931317091</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>5776.893931317091</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>5776.893931317091</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>5594.313831317091</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>5575.64713131709</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>5575.64713131709</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>5575.64713131709</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>5600.64713131709</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>5604.368831317091</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>5604.368831317091</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>5604.368831317091</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>5604.368831317091</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>5570.52613131709</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>5570.52613131709</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>5459.89423131709</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>4515.89423131709</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>4565.89423131709</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>4517.31513131709</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>3955.39293131709</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>3955.39293131709</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>1667.976231317091</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>2484.825331317091</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>2433.131931317091</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>2498.343031317091</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>2702.443031317091</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>2706.022831317091</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>2686.060031317091</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>2410.874231317091</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>2312.874231317091</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>2322.92903131709</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>2302.38443131709</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>2360.08543131709</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>2338.19493131709</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>2181.059931317091</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>2181.059931317091</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>2180.252131317091</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>2018.791531317091</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>1875.030531317091</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>1893.855031317091</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>2428.95453131709</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>2428.95453131709</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>2074.99633131709</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>2102.09143131709</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>2232.69733131709</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>1819.22133131709</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>1349.86633131709</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>2311.68743131709</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>2311.68743131709</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>2329.91143131709</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>2329.91143131709</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>2332.56443131709</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
